--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1530,16 +1530,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>169.7951448138297</v>
+        <v>169.7951298188948</v>
       </c>
       <c r="B5">
-        <v>172.8523724789456</v>
+        <v>172.8523572140211</v>
       </c>
       <c r="C5">
-        <v>168.951438975933</v>
+        <v>168.9514240555074</v>
       </c>
       <c r="D5">
-        <v>172.7828979492188</v>
+        <v>172.7828826904297</v>
       </c>
       <c r="E5">
         <v>90131400</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>170.8969440899053</v>
+        <v>170.8969590506433</v>
       </c>
       <c r="B7">
-        <v>174.4306184245835</v>
+        <v>174.430633694668</v>
       </c>
       <c r="C7">
-        <v>170.7282029161665</v>
+        <v>170.7282178621325</v>
       </c>
       <c r="D7">
-        <v>174.3015899658203</v>
+        <v>174.3016052246094</v>
       </c>
       <c r="E7">
         <v>90371900</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>175.383514685934</v>
+        <v>175.3835297511741</v>
       </c>
       <c r="B8">
-        <v>177.6863521801689</v>
+        <v>177.6863674432201</v>
       </c>
       <c r="C8">
-        <v>175.0360966105029</v>
+        <v>175.0361116459003</v>
       </c>
       <c r="D8">
-        <v>177.6367340087891</v>
+        <v>177.6367492675781</v>
       </c>
       <c r="E8">
         <v>100589400</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>177.2297518690324</v>
+        <v>177.2297671947723</v>
       </c>
       <c r="B9">
-        <v>178.2819114942378</v>
+        <v>178.2819269109619</v>
       </c>
       <c r="C9">
-        <v>175.3934252542005</v>
+        <v>175.3934404211461</v>
       </c>
       <c r="D9">
-        <v>176.4555206298828</v>
+        <v>176.4555358886719</v>
       </c>
       <c r="E9">
         <v>92633200</v>
@@ -1733,16 +1733,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>173.2791954912071</v>
+        <v>173.2792104190646</v>
       </c>
       <c r="B12">
-        <v>177.1702082685642</v>
+        <v>177.1702235316291</v>
       </c>
       <c r="C12">
-        <v>173.1501518951796</v>
+        <v>173.15016681192</v>
       </c>
       <c r="D12">
-        <v>177.1205749511719</v>
+        <v>177.1205902099609</v>
       </c>
       <c r="E12">
         <v>76468400</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>176.1875244710675</v>
+        <v>176.187539942535</v>
       </c>
       <c r="B13">
-        <v>176.9816121175944</v>
+        <v>176.9816276587927</v>
       </c>
       <c r="C13">
-        <v>173.1302968768147</v>
+        <v>173.1303120798194</v>
       </c>
       <c r="D13">
-        <v>173.7655639648438</v>
+        <v>173.7655792236328</v>
       </c>
       <c r="E13">
         <v>73401800</v>
@@ -1936,16 +1936,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>166.1522917667188</v>
+        <v>166.1523067559722</v>
       </c>
       <c r="B19">
-        <v>169.7752970421039</v>
+        <v>169.775312358203</v>
       </c>
       <c r="C19">
-        <v>165.5368809896085</v>
+        <v>165.5368959233433</v>
       </c>
       <c r="D19">
-        <v>169.1400299072266</v>
+        <v>169.1400451660156</v>
       </c>
       <c r="E19">
         <v>70618900</v>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>162.7079509590903</v>
+        <v>162.7079358066061</v>
       </c>
       <c r="B21">
-        <v>165.3681425431495</v>
+        <v>165.36812714293</v>
       </c>
       <c r="C21">
-        <v>162.3605479952298</v>
+        <v>162.3605328750981</v>
       </c>
       <c r="D21">
-        <v>163.8494567871094</v>
+        <v>163.8494415283203</v>
       </c>
       <c r="E21">
         <v>69023900</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>163.7997944370694</v>
+        <v>163.7998094789184</v>
       </c>
       <c r="B22">
-        <v>166.5790933852371</v>
+        <v>166.5791086823111</v>
       </c>
       <c r="C22">
-        <v>162.6980015204941</v>
+        <v>162.6980164611648</v>
       </c>
       <c r="D22">
-        <v>166.1621856689453</v>
+        <v>166.1622009277344</v>
       </c>
       <c r="E22">
         <v>67723800</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>167.5121549513372</v>
+        <v>167.51217034973</v>
       </c>
       <c r="B23">
-        <v>167.6312779505712</v>
+        <v>167.6312933599142</v>
       </c>
       <c r="C23">
-        <v>164.8718349460667</v>
+        <v>164.8718501017506</v>
       </c>
       <c r="D23">
-        <v>165.9934692382812</v>
+        <v>165.9934844970703</v>
       </c>
       <c r="E23">
         <v>67929800</v>
@@ -2110,16 +2110,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>165.2291714730163</v>
+        <v>165.2291557737874</v>
       </c>
       <c r="B25">
-        <v>166.6287341683827</v>
+        <v>166.6287183361746</v>
       </c>
       <c r="C25">
-        <v>160.3058399412472</v>
+        <v>160.3058247098081</v>
       </c>
       <c r="D25">
-        <v>160.5936889648438</v>
+        <v>160.5936737060547</v>
       </c>
       <c r="E25">
         <v>84882400</v>
@@ -2226,16 +2226,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>158.0724840504905</v>
+        <v>158.0724692010517</v>
       </c>
       <c r="B29">
-        <v>163.3035212015398</v>
+        <v>163.3035058606937</v>
       </c>
       <c r="C29">
-        <v>157.7548429035291</v>
+        <v>157.7548280839297</v>
       </c>
       <c r="D29">
-        <v>162.4300231933594</v>
+        <v>162.4300079345703</v>
       </c>
       <c r="E29">
         <v>130216800</v>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>160.6433194418921</v>
+        <v>160.6433037775568</v>
       </c>
       <c r="B30">
-        <v>164.9710813466393</v>
+        <v>164.9710652603038</v>
       </c>
       <c r="C30">
-        <v>156.0872624434389</v>
+        <v>156.0872472233649</v>
       </c>
       <c r="D30">
-        <v>156.4842987060547</v>
+        <v>156.4842834472656</v>
       </c>
       <c r="E30">
         <v>131747600</v>
@@ -2313,16 +2313,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>156.9805833511088</v>
+        <v>156.9805984826454</v>
       </c>
       <c r="B32">
-        <v>159.5216666326049</v>
+        <v>159.5216820090794</v>
       </c>
       <c r="C32">
-        <v>155.1641282722234</v>
+        <v>155.1641432286699</v>
       </c>
       <c r="D32">
-        <v>158.3007507324219</v>
+        <v>158.3007659912109</v>
       </c>
       <c r="E32">
         <v>88966500</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>141.9225663322633</v>
+        <v>141.9225510509964</v>
       </c>
       <c r="B39">
-        <v>145.3321996479474</v>
+        <v>145.3321839995541</v>
       </c>
       <c r="C39">
-        <v>137.9761297929104</v>
+        <v>137.9761149365692</v>
       </c>
       <c r="D39">
-        <v>141.7138061523438</v>
+        <v>141.7137908935547</v>
       </c>
       <c r="E39">
         <v>182602000</v>
@@ -2574,16 +2574,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>144.6860672943896</v>
+        <v>144.6860520345511</v>
       </c>
       <c r="B41">
-        <v>146.6443752518778</v>
+        <v>146.6443597854993</v>
       </c>
       <c r="C41">
-        <v>143.3241888382135</v>
+        <v>143.3241737220104</v>
       </c>
       <c r="D41">
-        <v>144.6761169433594</v>
+        <v>144.6761016845703</v>
       </c>
       <c r="E41">
         <v>86643800</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>147.976407219293</v>
+        <v>147.9763919993568</v>
       </c>
       <c r="B42">
-        <v>148.8810093415771</v>
+        <v>148.8809940285992</v>
       </c>
       <c r="C42">
-        <v>145.8093392322945</v>
+        <v>145.8093242352495</v>
       </c>
       <c r="D42">
-        <v>148.3541564941406</v>
+        <v>148.3541412353516</v>
       </c>
       <c r="E42">
         <v>78336300</v>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>145.9783528097602</v>
+        <v>145.9783368975804</v>
       </c>
       <c r="B43">
-        <v>146.4853201570918</v>
+        <v>146.4853041896508</v>
       </c>
       <c r="C43">
-        <v>139.0695935872717</v>
+        <v>139.0695784281723</v>
       </c>
       <c r="D43">
-        <v>139.9841461181641</v>
+        <v>139.984130859375</v>
       </c>
       <c r="E43">
         <v>109742900</v>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>138.264381160592</v>
+        <v>138.2643965857317</v>
       </c>
       <c r="B45">
-        <v>139.8648250740252</v>
+        <v>139.8648406777147</v>
       </c>
       <c r="C45">
-        <v>131.8228496142474</v>
+        <v>131.8228643207529</v>
       </c>
       <c r="D45">
-        <v>136.7732849121094</v>
+        <v>136.7733001708984</v>
       </c>
       <c r="E45">
         <v>137426100</v>
@@ -2719,16 +2719,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>136.9720997287161</v>
+        <v>136.9721144202711</v>
       </c>
       <c r="B46">
-        <v>142.4096321274767</v>
+        <v>142.4096474022585</v>
       </c>
       <c r="C46">
-        <v>136.8329313471555</v>
+        <v>136.8329460237833</v>
       </c>
       <c r="D46">
-        <v>142.2605285644531</v>
+        <v>142.2605438232422</v>
       </c>
       <c r="E46">
         <v>117726300</v>
@@ -2806,16 +2806,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>136.5744747925331</v>
+        <v>136.5744893731774</v>
       </c>
       <c r="B49">
-        <v>143.4832176940008</v>
+        <v>143.4832330122202</v>
       </c>
       <c r="C49">
-        <v>136.3259587517018</v>
+        <v>136.3259733058146</v>
       </c>
       <c r="D49">
-        <v>142.9265441894531</v>
+        <v>142.9265594482422</v>
       </c>
       <c r="E49">
         <v>90601500</v>
@@ -2835,16 +2835,16 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>144.5269822379425</v>
+        <v>144.5269970633591</v>
       </c>
       <c r="B50">
-        <v>148.7915106516482</v>
+        <v>148.7915259145153</v>
       </c>
       <c r="C50">
-        <v>144.3977490481222</v>
+        <v>144.3977638602823</v>
       </c>
       <c r="D50">
-        <v>148.7517547607422</v>
+        <v>148.7517700195312</v>
       </c>
       <c r="E50">
         <v>90978500</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>148.1851581391582</v>
+        <v>148.1851734215276</v>
       </c>
       <c r="B51">
-        <v>149.7657165828065</v>
+        <v>149.7657320281792</v>
       </c>
       <c r="C51">
-        <v>145.9683840435994</v>
+        <v>145.9683990973523</v>
       </c>
       <c r="D51">
-        <v>147.9565124511719</v>
+        <v>147.9565277099609</v>
       </c>
       <c r="E51">
         <v>103718400</v>
@@ -2893,16 +2893,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>149.0102093585681</v>
+        <v>149.010224739459</v>
       </c>
       <c r="B52">
-        <v>150.8392989143207</v>
+        <v>150.8393144840109</v>
       </c>
       <c r="C52">
-        <v>146.8033857418728</v>
+        <v>146.8034008949745</v>
       </c>
       <c r="D52">
-        <v>147.8272857666016</v>
+        <v>147.8273010253906</v>
       </c>
       <c r="E52">
         <v>74286600</v>
@@ -2922,16 +2922,16 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>146.9525272944715</v>
+        <v>146.9525123767629</v>
       </c>
       <c r="B53">
-        <v>150.3721109135092</v>
+        <v>150.3720956486657</v>
       </c>
       <c r="C53">
-        <v>145.9882837099794</v>
+        <v>145.9882688901548</v>
       </c>
       <c r="D53">
-        <v>150.3124694824219</v>
+        <v>150.3124542236328</v>
       </c>
       <c r="E53">
         <v>72348100</v>
@@ -3009,16 +3009,16 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>143.4931654850449</v>
+        <v>143.4931802964644</v>
       </c>
       <c r="B56">
-        <v>148.1155576948117</v>
+        <v>148.1155729833563</v>
       </c>
       <c r="C56">
-        <v>143.2446494486442</v>
+        <v>143.2446642344118</v>
       </c>
       <c r="D56">
-        <v>147.8272857666016</v>
+        <v>147.8273010253906</v>
       </c>
       <c r="E56">
         <v>67808200</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>139.4473208552486</v>
+        <v>139.4473364645451</v>
       </c>
       <c r="B59">
-        <v>139.9244674107785</v>
+        <v>139.9244830734854</v>
       </c>
       <c r="C59">
-        <v>136.2464330074797</v>
+        <v>136.2464482584789</v>
       </c>
       <c r="D59">
-        <v>136.3160247802734</v>
+        <v>136.3160400390625</v>
       </c>
       <c r="E59">
         <v>91437900</v>
@@ -3125,16 +3125,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>132.0813277620735</v>
+        <v>132.0812970154075</v>
       </c>
       <c r="B60">
-        <v>134.3974995603966</v>
+        <v>134.3974682745586</v>
       </c>
       <c r="C60">
-        <v>130.6598229961506</v>
+        <v>130.6597925803909</v>
       </c>
       <c r="D60">
-        <v>131.0972137451172</v>
+        <v>131.0971832275391</v>
       </c>
       <c r="E60">
         <v>122207100</v>
@@ -3183,16 +3183,16 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>133.4928661247109</v>
+        <v>133.4928812550571</v>
       </c>
       <c r="B62">
-        <v>136.5247647725926</v>
+        <v>136.5247802465802</v>
       </c>
       <c r="C62">
-        <v>131.3755198298091</v>
+        <v>131.3755347201711</v>
       </c>
       <c r="D62">
-        <v>134.6260986328125</v>
+        <v>134.6261138916016</v>
       </c>
       <c r="E62">
         <v>91533000</v>
@@ -3212,16 +3212,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>131.2960084239591</v>
+        <v>131.2959929281809</v>
       </c>
       <c r="B63">
-        <v>131.604165915633</v>
+        <v>131.6041503834854</v>
       </c>
       <c r="C63">
-        <v>128.2740445990834</v>
+        <v>128.2740294599624</v>
       </c>
       <c r="D63">
-        <v>129.2879943847656</v>
+        <v>129.2879791259766</v>
       </c>
       <c r="E63">
         <v>108123900</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>132.6280376763494</v>
+        <v>132.6280526599932</v>
       </c>
       <c r="B65">
-        <v>136.2464305920865</v>
+        <v>136.2464459845181</v>
       </c>
       <c r="C65">
-        <v>132.5286403618261</v>
+        <v>132.5286553342405</v>
       </c>
       <c r="D65">
-        <v>135.0634918212891</v>
+        <v>135.0635070800781</v>
       </c>
       <c r="E65">
         <v>81000500</v>
@@ -3299,16 +3299,16 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>133.9899116286168</v>
+        <v>133.9899268242723</v>
       </c>
       <c r="B66">
-        <v>136.9422836215</v>
+        <v>136.942299151981</v>
       </c>
       <c r="C66">
-        <v>133.1151454157666</v>
+        <v>133.1151605122159</v>
       </c>
       <c r="D66">
-        <v>134.5466003417969</v>
+        <v>134.5466156005859</v>
       </c>
       <c r="E66">
         <v>73409200</v>
@@ -3328,16 +3328,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>136.0078744349296</v>
+        <v>136.0078593361549</v>
       </c>
       <c r="B67">
-        <v>137.7673571906367</v>
+        <v>137.7673418965349</v>
       </c>
       <c r="C67">
-        <v>134.8249355812244</v>
+        <v>134.8249206137725</v>
       </c>
       <c r="D67">
-        <v>137.4492645263672</v>
+        <v>137.4492492675781</v>
       </c>
       <c r="E67">
         <v>72433800</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>139.0695899507357</v>
+        <v>139.0695748815246</v>
       </c>
       <c r="B68">
-        <v>141.0676689078319</v>
+        <v>141.0676536221142</v>
       </c>
       <c r="C68">
-        <v>138.9403719057073</v>
+        <v>138.9403568504979</v>
       </c>
       <c r="D68">
-        <v>140.8191528320312</v>
+        <v>140.8191375732422</v>
       </c>
       <c r="E68">
         <v>89116800</v>
@@ -3386,16 +3386,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>141.8529730333461</v>
+        <v>141.852957662535</v>
       </c>
       <c r="B69">
-        <v>142.6382923270778</v>
+        <v>142.6382768711717</v>
       </c>
       <c r="C69">
-        <v>140.1332460359068</v>
+        <v>140.1332308514407</v>
       </c>
       <c r="D69">
-        <v>140.8191528320312</v>
+        <v>140.8191375732422</v>
       </c>
       <c r="E69">
         <v>70207900</v>
@@ -3444,16 +3444,16 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>136.6440665465985</v>
+        <v>136.6440816114071</v>
       </c>
       <c r="B71">
-        <v>139.8350040162491</v>
+        <v>139.835019432854</v>
       </c>
       <c r="C71">
-        <v>135.8587473634749</v>
+        <v>135.8587623417033</v>
       </c>
       <c r="D71">
-        <v>138.4035491943359</v>
+        <v>138.403564453125</v>
       </c>
       <c r="E71">
         <v>66242400</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>136.9522447463596</v>
+        <v>136.9522298960948</v>
       </c>
       <c r="B74">
-        <v>140.7694480706179</v>
+        <v>140.769432806439</v>
       </c>
       <c r="C74">
-        <v>136.1172191950012</v>
+        <v>136.1172044352816</v>
       </c>
       <c r="D74">
-        <v>140.7197418212891</v>
+        <v>140.7197265625</v>
       </c>
       <c r="E74">
         <v>73353800</v>
@@ -3560,16 +3560,16 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>140.5109823490082</v>
+        <v>140.5109672578386</v>
       </c>
       <c r="B75">
-        <v>143.2645292934771</v>
+        <v>143.2645139065709</v>
       </c>
       <c r="C75">
-        <v>140.2425807648291</v>
+        <v>140.2425657024864</v>
       </c>
       <c r="D75">
-        <v>142.0716552734375</v>
+        <v>142.0716400146484</v>
       </c>
       <c r="E75">
         <v>74064300</v>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>144.3977575224112</v>
+        <v>144.3977725964844</v>
       </c>
       <c r="B77">
-        <v>146.6741729919046</v>
+        <v>146.6741883036189</v>
       </c>
       <c r="C77">
-        <v>144.1393062958178</v>
+        <v>144.1393213429105</v>
       </c>
       <c r="D77">
-        <v>146.1671905517578</v>
+        <v>146.1672058105469</v>
       </c>
       <c r="E77">
         <v>64547800</v>
@@ -3647,16 +3647,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>144.8053251668167</v>
+        <v>144.8053405098681</v>
       </c>
       <c r="B78">
-        <v>145.7695686207998</v>
+        <v>145.7695840660189</v>
       </c>
       <c r="C78">
-        <v>142.9265445007683</v>
+        <v>142.9265596447508</v>
       </c>
       <c r="D78">
-        <v>144.0100708007812</v>
+        <v>144.0100860595703</v>
       </c>
       <c r="E78">
         <v>63141600</v>
@@ -3676,16 +3676,16 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>144.8948044233626</v>
+        <v>144.8947891750355</v>
       </c>
       <c r="B79">
-        <v>147.5688397714337</v>
+        <v>147.5688242416985</v>
       </c>
       <c r="C79">
-        <v>144.1890272766643</v>
+        <v>144.1890121026111</v>
       </c>
       <c r="D79">
-        <v>144.9942169189453</v>
+        <v>144.9942016601562</v>
       </c>
       <c r="E79">
         <v>77588800</v>
@@ -3792,16 +3792,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>149.8452350862829</v>
+        <v>149.8452507258412</v>
       </c>
       <c r="B83">
-        <v>150.6703101490676</v>
+        <v>150.6703258747401</v>
       </c>
       <c r="C83">
-        <v>145.8292074353362</v>
+        <v>145.829222655736</v>
       </c>
       <c r="D83">
-        <v>146.197021484375</v>
+        <v>146.1970367431641</v>
       </c>
       <c r="E83">
         <v>81420900</v>
@@ -3850,16 +3850,16 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>150.2229901861665</v>
+        <v>150.22297511881</v>
       </c>
       <c r="B85">
-        <v>152.8075633994565</v>
+        <v>152.8075480728675</v>
       </c>
       <c r="C85">
-        <v>149.4774419709733</v>
+        <v>149.4774269783953</v>
       </c>
       <c r="D85">
-        <v>152.131591796875</v>
+        <v>152.1315765380859</v>
       </c>
       <c r="E85">
         <v>64823400</v>
@@ -3879,16 +3879,16 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>153.5829111096749</v>
+        <v>153.5829262849747</v>
       </c>
       <c r="B86">
-        <v>154.6465670304657</v>
+        <v>154.6465823108638</v>
       </c>
       <c r="C86">
-        <v>151.0381093136717</v>
+        <v>151.0381242375234</v>
       </c>
       <c r="D86">
-        <v>154.4278717041016</v>
+        <v>154.4278869628906</v>
       </c>
       <c r="E86">
         <v>65086600</v>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>154.467655927814</v>
+        <v>154.4676405402919</v>
       </c>
       <c r="B87">
-        <v>155.3523725764797</v>
+        <v>155.3523571008252</v>
       </c>
       <c r="C87">
-        <v>152.4994127977453</v>
+        <v>152.4993976062926</v>
       </c>
       <c r="D87">
-        <v>153.1753692626953</v>
+        <v>153.1753540039062</v>
       </c>
       <c r="E87">
         <v>66675400</v>
@@ -3966,16 +3966,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>151.3562357523016</v>
+        <v>151.3562051018657</v>
       </c>
       <c r="B89">
-        <v>152.1813110008779</v>
+        <v>152.1812801833599</v>
       </c>
       <c r="C89">
-        <v>149.9049102640347</v>
+        <v>149.9048799074998</v>
       </c>
       <c r="D89">
-        <v>150.7001647949219</v>
+        <v>150.7001342773438</v>
       </c>
       <c r="E89">
         <v>55138700</v>
@@ -4024,16 +4024,16 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>156.0482015385354</v>
+        <v>156.0481863156276</v>
       </c>
       <c r="B91">
-        <v>156.7042875831533</v>
+        <v>156.7042722962426</v>
       </c>
       <c r="C91">
-        <v>153.4934643064445</v>
+        <v>153.493449332758</v>
       </c>
       <c r="D91">
-        <v>156.416015625</v>
+        <v>156.4160003662109</v>
       </c>
       <c r="E91">
         <v>81378700</v>
@@ -4053,16 +4053,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>160.2829289323435</v>
+        <v>160.2829137927994</v>
       </c>
       <c r="B92">
-        <v>162.6587419394673</v>
+        <v>162.6587265755155</v>
       </c>
       <c r="C92">
-        <v>158.553251635759</v>
+        <v>158.5532366595917</v>
       </c>
       <c r="D92">
-        <v>161.5453796386719</v>
+        <v>161.5453643798828</v>
       </c>
       <c r="E92">
         <v>101786900</v>
@@ -4082,16 +4082,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>160.0542831710059</v>
+        <v>160.0542527479036</v>
       </c>
       <c r="B93">
-        <v>162.6189708161062</v>
+        <v>162.6189399055083</v>
       </c>
       <c r="C93">
-        <v>159.9350003120487</v>
+        <v>159.9349699116196</v>
       </c>
       <c r="D93">
-        <v>160.5513153076172</v>
+        <v>160.5512847900391</v>
       </c>
       <c r="E93">
         <v>67829400</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>163.2728982722338</v>
+        <v>163.2728830967142</v>
       </c>
       <c r="B99">
-        <v>165.0647023662708</v>
+        <v>165.0646870242107</v>
       </c>
       <c r="C99">
-        <v>162.5064013452013</v>
+        <v>162.5063862409243</v>
       </c>
       <c r="D99">
-        <v>164.1687927246094</v>
+        <v>164.1687774658203</v>
       </c>
       <c r="E99">
         <v>63135500</v>
@@ -4285,16 +4285,16 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>166.9162092616829</v>
+        <v>166.9162243798202</v>
       </c>
       <c r="B100">
-        <v>168.5686515967417</v>
+        <v>168.568666864546</v>
       </c>
       <c r="C100">
-        <v>166.1397633816982</v>
+        <v>166.1397784295103</v>
       </c>
       <c r="D100">
-        <v>168.4691162109375</v>
+        <v>168.4691314697266</v>
       </c>
       <c r="E100">
         <v>70170500</v>
@@ -4401,16 +4401,16 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>171.9930057866333</v>
+        <v>171.9929905498906</v>
       </c>
       <c r="B104">
-        <v>172.9187776421852</v>
+        <v>172.9187623234291</v>
       </c>
       <c r="C104">
-        <v>170.8781121181972</v>
+        <v>170.8780969802222</v>
       </c>
       <c r="D104">
-        <v>172.2418670654297</v>
+        <v>172.2418518066406</v>
       </c>
       <c r="E104">
         <v>56377100</v>
@@ -4488,16 +4488,16 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>172.2418401760118</v>
+        <v>172.2418555691333</v>
       </c>
       <c r="B107">
-        <v>172.9486127807426</v>
+        <v>172.9486282370277</v>
       </c>
       <c r="C107">
-        <v>170.5296736300433</v>
+        <v>170.5296888701497</v>
       </c>
       <c r="D107">
-        <v>170.7387237548828</v>
+        <v>170.7387390136719</v>
       </c>
       <c r="E107">
         <v>70346300</v>
@@ -4546,16 +4546,16 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>166.3189510457003</v>
+        <v>166.3189662908033</v>
       </c>
       <c r="B109">
-        <v>167.9415312428377</v>
+        <v>167.9415466366694</v>
       </c>
       <c r="C109">
-        <v>165.8909018008159</v>
+        <v>165.8909170066831</v>
       </c>
       <c r="D109">
-        <v>166.46826171875</v>
+        <v>166.4682769775391</v>
       </c>
       <c r="E109">
         <v>54147100</v>
@@ -4662,16 +4662,16 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>160.4159494423361</v>
+        <v>160.4159646793772</v>
       </c>
       <c r="B113">
-        <v>162.1579781246606</v>
+        <v>162.1579935271675</v>
       </c>
       <c r="C113">
-        <v>159.09202101034</v>
+        <v>159.0920361216283</v>
       </c>
       <c r="D113">
-        <v>160.6449127197266</v>
+        <v>160.6449279785156</v>
       </c>
       <c r="E113">
         <v>73314000</v>
@@ -4691,16 +4691,16 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>161.3915066793161</v>
+        <v>161.3915222472947</v>
       </c>
       <c r="B114">
-        <v>161.8195407489848</v>
+        <v>161.8195563582521</v>
       </c>
       <c r="C114">
-        <v>157.0015904759361</v>
+        <v>157.0016056204593</v>
       </c>
       <c r="D114">
-        <v>158.1861724853516</v>
+        <v>158.1861877441406</v>
       </c>
       <c r="E114">
         <v>77906200</v>
@@ -4720,16 +4720,16 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>159.579797365319</v>
+        <v>159.5797818066342</v>
       </c>
       <c r="B115">
-        <v>159.84857178827</v>
+        <v>159.8485562033803</v>
       </c>
       <c r="C115">
-        <v>156.4242383037962</v>
+        <v>156.4242230527716</v>
       </c>
       <c r="D115">
-        <v>156.5038757324219</v>
+        <v>156.5038604736328</v>
       </c>
       <c r="E115">
         <v>87991100</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>155.9265142575275</v>
+        <v>155.9264991262499</v>
       </c>
       <c r="B116">
-        <v>157.6984052567607</v>
+        <v>157.6983899535369</v>
       </c>
       <c r="C116">
-        <v>153.9654862657997</v>
+        <v>153.9654713248224</v>
       </c>
       <c r="D116">
-        <v>157.2405090332031</v>
+        <v>157.2404937744141</v>
       </c>
       <c r="E116">
         <v>74229900</v>
@@ -4807,16 +4807,16 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>155.7572919728371</v>
+        <v>155.757276522486</v>
       </c>
       <c r="B118">
-        <v>156.37446305826</v>
+        <v>156.3744475466886</v>
       </c>
       <c r="C118">
-        <v>152.9899558817463</v>
+        <v>152.9899407059012</v>
       </c>
       <c r="D118">
-        <v>153.8261260986328</v>
+        <v>153.8261108398438</v>
       </c>
       <c r="E118">
         <v>73714800</v>
@@ -4836,16 +4836,16 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>154.1147966200756</v>
+        <v>154.1148117673296</v>
       </c>
       <c r="B119">
-        <v>155.9563606899375</v>
+        <v>155.9563760181906</v>
       </c>
       <c r="C119">
-        <v>152.9103015303289</v>
+        <v>152.9103165591985</v>
       </c>
       <c r="D119">
-        <v>155.2496032714844</v>
+        <v>155.2496185302734</v>
       </c>
       <c r="E119">
         <v>87449600</v>
@@ -4894,16 +4894,16 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>154.76182838562</v>
+        <v>154.7618434601833</v>
       </c>
       <c r="B121">
-        <v>157.1011301058352</v>
+        <v>157.101145408258</v>
       </c>
       <c r="C121">
-        <v>154.0451068028003</v>
+        <v>154.0451218075514</v>
       </c>
       <c r="D121">
-        <v>156.6531677246094</v>
+        <v>156.6531829833984</v>
       </c>
       <c r="E121">
         <v>68028800</v>
@@ -5010,16 +5010,16 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>153.9455779582859</v>
+        <v>153.9455624711709</v>
       </c>
       <c r="B125">
-        <v>154.5329021085457</v>
+        <v>154.5328865623452</v>
       </c>
       <c r="C125">
-        <v>150.6904834319717</v>
+        <v>150.6904682723232</v>
       </c>
       <c r="D125">
-        <v>151.6759643554688</v>
+        <v>151.6759490966797</v>
       </c>
       <c r="E125">
         <v>90481100</v>
@@ -5039,16 +5039,16 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>150.5212517569599</v>
+        <v>150.5212364465309</v>
       </c>
       <c r="B126">
-        <v>150.660613455521</v>
+        <v>150.6605981309168</v>
       </c>
       <c r="C126">
-        <v>147.6941762886978</v>
+        <v>147.6941612658279</v>
       </c>
       <c r="D126">
-        <v>150.0135650634766</v>
+        <v>150.0135498046875</v>
       </c>
       <c r="E126">
         <v>162278800</v>
@@ -5068,16 +5068,16 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>148.6298879322302</v>
+        <v>148.6298731841086</v>
       </c>
       <c r="B127">
-        <v>153.8559740912497</v>
+        <v>153.8559588245584</v>
       </c>
       <c r="C127">
-        <v>148.420852991869</v>
+        <v>148.4208382644894</v>
       </c>
       <c r="D127">
-        <v>153.7763366699219</v>
+        <v>153.7763214111328</v>
       </c>
       <c r="E127">
         <v>81474200</v>
@@ -5155,16 +5155,16 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <v>151.6859201835859</v>
+        <v>151.6859049607611</v>
       </c>
       <c r="B130">
-        <v>153.7663966735104</v>
+        <v>153.7663812418941</v>
       </c>
       <c r="C130">
-        <v>150.2226147584101</v>
+        <v>150.222599682439</v>
       </c>
       <c r="D130">
-        <v>152.0442810058594</v>
+        <v>152.0442657470703</v>
       </c>
       <c r="E130">
         <v>86652500</v>
@@ -5213,16 +5213,16 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <v>148.9783225048241</v>
+        <v>148.9782922119229</v>
       </c>
       <c r="B132">
-        <v>153.0696026160179</v>
+        <v>153.0695714912054</v>
       </c>
       <c r="C132">
-        <v>148.9584093491297</v>
+        <v>148.9583790602775</v>
       </c>
       <c r="D132">
-        <v>150.0832672119141</v>
+        <v>150.0832366943359</v>
       </c>
       <c r="E132">
         <v>93339400</v>
@@ -5300,16 +5300,16 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>145.4345303828441</v>
+        <v>145.4345147363727</v>
       </c>
       <c r="B135">
-        <v>146.0517014638907</v>
+        <v>146.0516857510214</v>
       </c>
       <c r="C135">
-        <v>140.0392047524485</v>
+        <v>140.0391896864294</v>
       </c>
       <c r="D135">
-        <v>141.8310089111328</v>
+        <v>141.8309936523438</v>
       </c>
       <c r="E135">
         <v>128138200</v>
@@ -5329,16 +5329,16 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>140.6364680202339</v>
+        <v>140.6364524213791</v>
       </c>
       <c r="B136">
-        <v>142.4481852063937</v>
+        <v>142.4481694065901</v>
       </c>
       <c r="C136">
-        <v>137.371409643842</v>
+        <v>137.3713944071348</v>
       </c>
       <c r="D136">
-        <v>137.5704956054688</v>
+        <v>137.5704803466797</v>
       </c>
       <c r="E136">
         <v>124925300</v>
@@ -5358,16 +5358,16 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <v>137.5804700770271</v>
+        <v>137.5804552724123</v>
       </c>
       <c r="B137">
-        <v>142.4183337342591</v>
+        <v>142.4183184090566</v>
       </c>
       <c r="C137">
-        <v>137.0628343866147</v>
+        <v>137.0628196377011</v>
       </c>
       <c r="D137">
-        <v>141.8011474609375</v>
+        <v>141.8011322021484</v>
       </c>
       <c r="E137">
         <v>114311700</v>
@@ -5416,16 +5416,16 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <v>143.4137806165337</v>
+        <v>143.4137505846492</v>
       </c>
       <c r="B139">
-        <v>146.7087014159833</v>
+        <v>146.7086706941186</v>
       </c>
       <c r="C139">
-        <v>142.35859606795</v>
+        <v>142.3585662570289</v>
       </c>
       <c r="D139">
-        <v>145.733154296875</v>
+        <v>145.7331237792969</v>
       </c>
       <c r="E139">
         <v>79471000</v>
@@ -5503,16 +5503,16 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>139.7803955078125</v>
+        <v>139.7803802490234</v>
       </c>
       <c r="B142">
-        <v>141.2437009821484</v>
+        <v>141.2436855636211</v>
       </c>
       <c r="C142">
-        <v>137.9388312339646</v>
+        <v>137.9388161762055</v>
       </c>
       <c r="D142">
-        <v>139.7803955078125</v>
+        <v>139.7803802490234</v>
       </c>
       <c r="E142">
         <v>74899000</v>
@@ -5648,16 +5648,16 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>140.4274294052463</v>
+        <v>140.4274445204589</v>
       </c>
       <c r="B147">
-        <v>142.2490803363246</v>
+        <v>142.2490956476146</v>
       </c>
       <c r="C147">
-        <v>139.6310703902751</v>
+        <v>139.6310854197698</v>
       </c>
       <c r="D147">
-        <v>141.7613220214844</v>
+        <v>141.7613372802734</v>
       </c>
       <c r="E147">
         <v>85250900</v>
@@ -5677,16 +5677,16 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>144.8272945646099</v>
+        <v>144.8273100080973</v>
       </c>
       <c r="B148">
-        <v>146.03177447573</v>
+        <v>146.0317900476556</v>
       </c>
       <c r="C148">
-        <v>139.9695182366475</v>
+        <v>139.9695331621316</v>
       </c>
       <c r="D148">
-        <v>143.09521484375</v>
+        <v>143.0952301025391</v>
       </c>
       <c r="E148">
         <v>99136600</v>
@@ -5706,16 +5706,16 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>141.044598183217</v>
+        <v>141.044613211841</v>
       </c>
       <c r="B149">
-        <v>144.2897432701918</v>
+        <v>144.2897586445934</v>
       </c>
       <c r="C149">
-        <v>140.8554612113756</v>
+        <v>140.8554762198466</v>
       </c>
       <c r="D149">
-        <v>143.2047119140625</v>
+        <v>143.2047271728516</v>
       </c>
       <c r="E149">
         <v>61758300</v>
@@ -5764,16 +5764,16 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <v>142.2192152326643</v>
+        <v>142.2192300355642</v>
       </c>
       <c r="B151">
-        <v>147.1765420229725</v>
+        <v>147.1765573418561</v>
       </c>
       <c r="C151">
-        <v>142.000216128388</v>
+        <v>142.0002309084933</v>
       </c>
       <c r="D151">
-        <v>146.5991821289062</v>
+        <v>146.5991973876953</v>
       </c>
       <c r="E151">
         <v>86548600</v>
@@ -5793,16 +5793,16 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <v>146.5195562937101</v>
+        <v>146.5195412656657</v>
       </c>
       <c r="B152">
-        <v>149.545702499512</v>
+        <v>149.5456871610854</v>
       </c>
       <c r="C152">
-        <v>145.3349742785513</v>
+        <v>145.3349593720056</v>
       </c>
       <c r="D152">
-        <v>148.7692565917969</v>
+        <v>148.7692413330078</v>
       </c>
       <c r="E152">
         <v>75981900</v>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>149.4063514300267</v>
+        <v>149.4063363966038</v>
       </c>
       <c r="B153">
-        <v>151.795428783862</v>
+        <v>151.7954135100476</v>
       </c>
       <c r="C153">
-        <v>148.679680759947</v>
+        <v>148.6796657996425</v>
       </c>
       <c r="D153">
-        <v>151.6461029052734</v>
+        <v>151.6460876464844</v>
       </c>
       <c r="E153">
         <v>74732300</v>
@@ -5909,16 +5909,16 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <v>147.5249453557131</v>
+        <v>147.524959875762</v>
       </c>
       <c r="B156">
-        <v>156.7825868555148</v>
+        <v>156.7826022867412</v>
       </c>
       <c r="C156">
-        <v>147.146686585982</v>
+        <v>147.146701068801</v>
       </c>
       <c r="D156">
-        <v>155.0306091308594</v>
+        <v>155.0306243896484</v>
       </c>
       <c r="E156">
         <v>164762400</v>
@@ -5938,16 +5938,16 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>152.4623677089595</v>
+        <v>152.4623524680814</v>
       </c>
       <c r="B157">
-        <v>153.5374501871231</v>
+        <v>153.5374348387746</v>
       </c>
       <c r="C157">
-        <v>151.2280103771525</v>
+        <v>151.2279952596668</v>
       </c>
       <c r="D157">
-        <v>152.6415405273438</v>
+        <v>152.6415252685547</v>
       </c>
       <c r="E157">
         <v>97943200</v>
@@ -5967,16 +5967,16 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>154.3736203689756</v>
+        <v>154.3736046614871</v>
       </c>
       <c r="B158">
-        <v>154.7419301773627</v>
+        <v>154.7419144323989</v>
       </c>
       <c r="C158">
-        <v>148.4507253519562</v>
+        <v>148.4507102471213</v>
       </c>
       <c r="D158">
-        <v>149.9637908935547</v>
+        <v>149.9637756347656</v>
       </c>
       <c r="E158">
         <v>80379300</v>
@@ -6025,16 +6025,16 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>141.4128981964149</v>
+        <v>141.4129138045907</v>
       </c>
       <c r="B160">
-        <v>142.1495328808301</v>
+        <v>142.1495485703105</v>
       </c>
       <c r="C160">
-        <v>138.1179780512084</v>
+        <v>138.1179932957137</v>
       </c>
       <c r="D160">
-        <v>138.2473907470703</v>
+        <v>138.2474060058594</v>
       </c>
       <c r="E160">
         <v>97918500</v>
